--- a/data/outputs/OR/41.xlsx
+++ b/data/outputs/OR/41.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ60"/>
+  <dimension ref="A1:BR60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +934,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1144,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1385,6 +1392,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1626,6 +1634,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>3851706</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1859,6 +1872,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2080,6 +2094,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2313,6 +2328,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2514,6 +2530,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2743,6 +2760,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4301521</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2964,6 +2986,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3177,6 +3200,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3386,6 +3410,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>7142550</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3599,6 +3628,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3816,6 +3846,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4033,6 +4064,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4234,6 +4266,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4443,6 +4476,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4373944</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4652,6 +4690,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4885,6 +4924,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5094,6 +5134,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5303,6 +5344,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5548,6 +5590,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5749,6 +5792,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5958,6 +6002,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6175,6 +6220,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6388,6 +6434,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6601,6 +6648,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6810,6 +6858,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7011,6 +7060,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7208,6 +7258,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7409,6 +7460,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7638,6 +7690,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>6139372</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7855,6 +7912,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8068,6 +8126,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8285,6 +8344,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8506,6 +8566,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>11937247</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8719,6 +8784,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>6681391</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8924,6 +8994,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9141,6 +9212,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9350,6 +9422,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9571,6 +9644,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9796,6 +9870,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10005,6 +10080,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10238,6 +10314,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10455,6 +10532,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10676,6 +10754,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10853,6 +10932,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11062,6 +11142,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11271,6 +11352,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11448,6 +11530,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11649,6 +11732,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11858,6 +11942,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12067,6 +12152,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12268,6 +12354,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12501,6 +12588,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12690,6 +12778,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12919,6 +13008,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13104,6 +13194,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13313,6 +13404,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
